--- a/biology/Zoologie/Anteos_maerula/Anteos_maerula.xlsx
+++ b/biology/Zoologie/Anteos_maerula/Anteos_maerula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anteos maerula  est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Anteos.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anteos maerula a été décrit par Fabricius en 1775 sous le nom de Papilio maerula[1].
-Nom vernaculaire
-Eurema maerula se nomme Papillon de soufre en français et Angled Sulphur ou Yellow Angled Sulphur anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anteos maerula a été décrit par Fabricius en 1775 sous le nom de Papilio maerula.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurema maerula est un papillon assez grand avec une envergure variant de 82 mm à 110 mm à l'apex des ailes antérieures pointu au dessus jaune clair  avec un point discal marron aux antérieures et rose aux postérieures et au revers jaune plus clair aux points discaux roses[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema maerula se nomme Papillon de soufre en français et Angled Sulphur ou Yellow Angled Sulphur anglais.
 </t>
         </is>
       </c>
@@ -572,16 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un migrateur occasionnel vers le nord aux USA[2].
-Période de vol
-L'imago vole toute l'année dans les régions tropicales et en deux générations dans la partie nord de son territoire[2].
-Plantes-hôtes
-Les plantes hôte de sa chenille sont des Senna et Cassia emarginata[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema maerula est un papillon assez grand avec une envergure variant de 82 mm à 110 mm à l'apex des ailes antérieures pointu au dessus jaune clair  avec un point discal marron aux antérieures et rose aux postérieures et au revers jaune plus clair aux points discaux roses.
 </t>
         </is>
       </c>
@@ -607,15 +623,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurema maerula est présent dans le sud des USA, au Mexique, au Costa Rica, en Colombie à Cuba et dans les grandes Antilles dont à la Guadeloupe[1],[3]. Il est occasionnellement migrateur plus au nord en Floride et au Nebraska.
-Biotope
-Protection
-Pas de statut de protection particulier[2].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur occasionnel vers le nord aux USA.
 </t>
         </is>
       </c>
@@ -641,12 +656,158 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole toute l'année dans les régions tropicales et en deux générations dans la partie nord de son territoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Senna et Cassia emarginata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurema maerula est présent dans le sud des USA, au Mexique, au Costa Rica, en Colombie à Cuba et dans les grandes Antilles dont à la Guadeloupe,. Il est occasionnellement migrateur plus au nord en Floride et au Nebraska.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anteos_maerula</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a fait l'objet de l'émission d'un timbre de la poste cubaine en 1993 et figure sur une planche dédiée aux papillons des Bahamas[4],.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a fait l'objet de l'émission d'un timbre de la poste cubaine en 1993 et figure sur une planche dédiée aux papillons des Bahamas,.
 </t>
         </is>
       </c>
